--- a/data/BondDeal/其他.xlsx
+++ b/data/BondDeal/其他.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,106 +31,289 @@
     <t>year</t>
   </si>
   <si>
-    <t>348D</t>
-  </si>
-  <si>
-    <t>1.55Y</t>
-  </si>
-  <si>
-    <t>1.94Y</t>
-  </si>
-  <si>
-    <t>2.24Y</t>
-  </si>
-  <si>
-    <t>2.29Y</t>
-  </si>
-  <si>
-    <t>2.53Y</t>
-  </si>
-  <si>
-    <t>2.56Y</t>
-  </si>
-  <si>
-    <t>2.57Y</t>
-  </si>
-  <si>
-    <t>2.60Y</t>
-  </si>
-  <si>
-    <t>2.87Y</t>
-  </si>
-  <si>
-    <t>2.96Y</t>
-  </si>
-  <si>
-    <t>3.95Y+N</t>
-  </si>
-  <si>
-    <t>18厦门国际银行</t>
+    <t>292D(休1)</t>
+  </si>
+  <si>
+    <t>343D</t>
+  </si>
+  <si>
+    <t>356D</t>
+  </si>
+  <si>
+    <t>1.19Y</t>
+  </si>
+  <si>
+    <t>1.24Y</t>
+  </si>
+  <si>
+    <t>1.36Y</t>
+  </si>
+  <si>
+    <t>1.46Y</t>
+  </si>
+  <si>
+    <t>1.53Y</t>
+  </si>
+  <si>
+    <t>1.65Y</t>
+  </si>
+  <si>
+    <t>1.70Y+2Y</t>
+  </si>
+  <si>
+    <t>1.81Y</t>
+  </si>
+  <si>
+    <t>1.81Y+1Y</t>
+  </si>
+  <si>
+    <t>1.84Y</t>
+  </si>
+  <si>
+    <t>1.88Y+3Y</t>
+  </si>
+  <si>
+    <t>1.88Y</t>
+  </si>
+  <si>
+    <t>1.98Y</t>
+  </si>
+  <si>
+    <t>2.01Y+2Y</t>
+  </si>
+  <si>
+    <t>2.02Y</t>
+  </si>
+  <si>
+    <t>2.20Y</t>
+  </si>
+  <si>
+    <t>2.26Y</t>
+  </si>
+  <si>
+    <t>2.31Y</t>
+  </si>
+  <si>
+    <t>2.39Y</t>
+  </si>
+  <si>
+    <t>2.52Y</t>
+  </si>
+  <si>
+    <t>2.59Y</t>
+  </si>
+  <si>
+    <t>2.83Y</t>
+  </si>
+  <si>
+    <t>2.85Y</t>
+  </si>
+  <si>
+    <t>2.88Y</t>
+  </si>
+  <si>
+    <t>2.91Y</t>
+  </si>
+  <si>
+    <t>2.95Y</t>
+  </si>
+  <si>
+    <t>4.71Y+5Y</t>
+  </si>
+  <si>
+    <t>4.72Y+5Y</t>
+  </si>
+  <si>
+    <t>16云能投PPN001</t>
+  </si>
+  <si>
+    <t>18民生银行02</t>
+  </si>
+  <si>
+    <t>20光证G6</t>
+  </si>
+  <si>
+    <t>18大连银行绿色金融</t>
+  </si>
+  <si>
+    <t>19河钢集PPN001</t>
+  </si>
+  <si>
+    <t>19建银01</t>
+  </si>
+  <si>
+    <t>19中银01</t>
+  </si>
+  <si>
+    <t>17南通经开GN002</t>
   </si>
   <si>
     <t>19西南02</t>
   </si>
   <si>
-    <t>20华泰G8</t>
-  </si>
-  <si>
-    <t>20信达01</t>
-  </si>
-  <si>
-    <t>20华夏银行绿色01</t>
+    <t>19河南资产PPN001</t>
+  </si>
+  <si>
+    <t>19建发地产PPN002</t>
+  </si>
+  <si>
+    <t>20招证G6</t>
+  </si>
+  <si>
+    <t>20中金13</t>
+  </si>
+  <si>
+    <t>19河南资产PPN002</t>
+  </si>
+  <si>
+    <t>19中金04</t>
+  </si>
+  <si>
+    <t>20国君G6</t>
+  </si>
+  <si>
+    <t>19天津银行债</t>
+  </si>
+  <si>
+    <t>20远东一</t>
+  </si>
+  <si>
+    <t>20重庆农商三农债</t>
+  </si>
+  <si>
+    <t>20中国信达02BC(一)</t>
+  </si>
+  <si>
+    <t>20浙商银行小微债02</t>
+  </si>
+  <si>
+    <t>20浦发银行01</t>
+  </si>
+  <si>
+    <t>20平安银行小微债01</t>
   </si>
   <si>
     <t>20中证13</t>
   </si>
   <si>
-    <t>20招商G1</t>
-  </si>
-  <si>
-    <t>20中证15</t>
-  </si>
-  <si>
-    <t>20中证16</t>
+    <t>20华夏银行小微债01</t>
+  </si>
+  <si>
+    <t>20重庆银行小微债01</t>
   </si>
   <si>
     <t>20交通银行02</t>
   </si>
   <si>
+    <t>16光控04</t>
+  </si>
+  <si>
+    <t>20常城建PPN003</t>
+  </si>
+  <si>
     <t>20华夏银行</t>
   </si>
   <si>
-    <t>19中信银行永续债</t>
-  </si>
-  <si>
-    <t>3.18</t>
+    <t>20中国银行二级01</t>
+  </si>
+  <si>
+    <t>20工商银行二级01</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>4.85</t>
   </si>
   <si>
     <t>3.28</t>
   </si>
   <si>
-    <t>3.30</t>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.37</t>
   </si>
   <si>
     <t>3.58</t>
   </si>
   <si>
-    <t>3.39</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
     <t>3.41</t>
   </si>
   <si>
-    <t>4.50</t>
+    <t>3.405</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>3.395</t>
+  </si>
+  <si>
+    <t>4.21</t>
   </si>
   <si>
     <t>AAA</t>
+  </si>
+  <si>
+    <t>A/AAA</t>
   </si>
   <si>
     <t>AA/AAA</t>
@@ -491,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,16 +705,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F2">
-        <v>0.9534246575342465</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -542,16 +725,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F3">
-        <v>1.55013698630137</v>
+        <v>0.9397260273972603</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -562,16 +745,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F4">
-        <v>1.55013698630137</v>
+        <v>0.9397260273972603</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -582,16 +765,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="F5">
-        <v>1.94</v>
+        <v>0.9753424657534246</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -602,16 +785,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F6">
-        <v>1.94</v>
+        <v>0.9753424657534246</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -622,16 +805,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F7">
-        <v>2.24</v>
+        <v>1.18986301369863</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -639,19 +822,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F8">
-        <v>2.24</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -659,19 +842,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F9">
-        <v>2.24</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -682,16 +865,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F10">
-        <v>2.29013698630137</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -699,19 +882,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F11">
-        <v>2.52986301369863</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -719,19 +902,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F12">
-        <v>2.56</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -739,19 +922,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F13">
-        <v>2.56</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -762,16 +945,16 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F14">
-        <v>2.56</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -779,19 +962,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F15">
-        <v>2.56</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -802,16 +985,16 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F16">
-        <v>2.56986301369863</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -822,16 +1005,16 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F17">
-        <v>2.6</v>
+        <v>1.64986301369863</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -842,16 +1025,16 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F18">
-        <v>2.86986301369863</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -862,16 +1045,16 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F19">
-        <v>2.86986301369863</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -879,19 +1062,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F20">
-        <v>2.86986301369863</v>
+        <v>1.80986301369863</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -899,19 +1082,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>2.86986301369863</v>
+        <v>1.80986301369863</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -919,19 +1102,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F22">
-        <v>2.96</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -939,19 +1122,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F23">
-        <v>2.96</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -959,19 +1142,619 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26">
+        <v>2.00986301369863</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32">
+        <v>2.30986301369863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33">
+        <v>2.30986301369863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34">
+        <v>2.39013698630137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36">
+        <v>2.58986301369863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37">
+        <v>2.58986301369863</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38">
+        <v>2.83013698630137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="E24" t="s">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39">
+        <v>2.83013698630137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="F24">
-        <v>3.95013698630137</v>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40">
+        <v>2.84986301369863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41">
+        <v>2.84986301369863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42">
+        <v>2.84986301369863</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44">
+        <v>2.91013698630137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51">
+        <v>4.71013698630137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54">
+        <v>4.72</v>
       </c>
     </row>
   </sheetData>

--- a/data/BondDeal/其他.xlsx
+++ b/data/BondDeal/其他.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="77">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,283 +31,211 @@
     <t>year</t>
   </si>
   <si>
-    <t>292D(休1)</t>
-  </si>
-  <si>
-    <t>343D</t>
-  </si>
-  <si>
-    <t>356D</t>
-  </si>
-  <si>
-    <t>1.19Y</t>
-  </si>
-  <si>
-    <t>1.24Y</t>
-  </si>
-  <si>
-    <t>1.36Y</t>
-  </si>
-  <si>
-    <t>1.46Y</t>
-  </si>
-  <si>
-    <t>1.53Y</t>
-  </si>
-  <si>
-    <t>1.65Y</t>
-  </si>
-  <si>
-    <t>1.70Y+2Y</t>
-  </si>
-  <si>
-    <t>1.81Y</t>
-  </si>
-  <si>
-    <t>1.81Y+1Y</t>
-  </si>
-  <si>
-    <t>1.84Y</t>
-  </si>
-  <si>
-    <t>1.88Y+3Y</t>
-  </si>
-  <si>
-    <t>1.88Y</t>
-  </si>
-  <si>
-    <t>1.98Y</t>
-  </si>
-  <si>
-    <t>2.01Y+2Y</t>
-  </si>
-  <si>
-    <t>2.02Y</t>
-  </si>
-  <si>
-    <t>2.20Y</t>
-  </si>
-  <si>
-    <t>2.26Y</t>
-  </si>
-  <si>
-    <t>2.31Y</t>
-  </si>
-  <si>
-    <t>2.39Y</t>
-  </si>
-  <si>
-    <t>2.52Y</t>
+    <t>346D</t>
+  </si>
+  <si>
+    <t>1.16Y</t>
+  </si>
+  <si>
+    <t>1.25Y</t>
+  </si>
+  <si>
+    <t>1.68Y</t>
+  </si>
+  <si>
+    <t>1.83Y</t>
+  </si>
+  <si>
+    <t>1.89Y</t>
+  </si>
+  <si>
+    <t>1.93Y</t>
+  </si>
+  <si>
+    <t>2.14Y</t>
+  </si>
+  <si>
+    <t>2.14Y+2Y</t>
+  </si>
+  <si>
+    <t>2.33Y+3Y</t>
+  </si>
+  <si>
+    <t>2.46Y</t>
+  </si>
+  <si>
+    <t>2.56Y</t>
   </si>
   <si>
     <t>2.59Y</t>
   </si>
   <si>
-    <t>2.83Y</t>
+    <t>2.60Y</t>
+  </si>
+  <si>
+    <t>2.7Y</t>
   </si>
   <si>
     <t>2.85Y</t>
   </si>
   <si>
-    <t>2.88Y</t>
-  </si>
-  <si>
-    <t>2.91Y</t>
-  </si>
-  <si>
     <t>2.95Y</t>
   </si>
   <si>
+    <t>2.97Y</t>
+  </si>
+  <si>
+    <t>3.62Y+5Y</t>
+  </si>
+  <si>
+    <t>3.85Y+5Y</t>
+  </si>
+  <si>
+    <t>4.20Y</t>
+  </si>
+  <si>
+    <t>4.48Y+5Y</t>
+  </si>
+  <si>
     <t>4.71Y+5Y</t>
   </si>
   <si>
     <t>4.72Y+5Y</t>
   </si>
   <si>
-    <t>16云能投PPN001</t>
-  </si>
-  <si>
-    <t>18民生银行02</t>
-  </si>
-  <si>
-    <t>20光证G6</t>
-  </si>
-  <si>
-    <t>18大连银行绿色金融</t>
-  </si>
-  <si>
-    <t>19河钢集PPN001</t>
-  </si>
-  <si>
-    <t>19建银01</t>
-  </si>
-  <si>
-    <t>19中银01</t>
-  </si>
-  <si>
-    <t>17南通经开GN002</t>
-  </si>
-  <si>
-    <t>19西南02</t>
-  </si>
-  <si>
-    <t>19河南资产PPN001</t>
-  </si>
-  <si>
-    <t>19建发地产PPN002</t>
-  </si>
-  <si>
-    <t>20招证G6</t>
-  </si>
-  <si>
-    <t>20中金13</t>
-  </si>
-  <si>
-    <t>19河南资产PPN002</t>
-  </si>
-  <si>
-    <t>19中金04</t>
-  </si>
-  <si>
-    <t>20国君G6</t>
-  </si>
-  <si>
-    <t>19天津银行债</t>
-  </si>
-  <si>
-    <t>20远东一</t>
-  </si>
-  <si>
-    <t>20重庆农商三农债</t>
-  </si>
-  <si>
-    <t>20中国信达02BC(一)</t>
-  </si>
-  <si>
-    <t>20浙商银行小微债02</t>
-  </si>
-  <si>
-    <t>20浦发银行01</t>
-  </si>
-  <si>
-    <t>20平安银行小微债01</t>
-  </si>
-  <si>
-    <t>20中证13</t>
+    <t>18平安银行01</t>
+  </si>
+  <si>
+    <t>19华融湘江银行01</t>
+  </si>
+  <si>
+    <t>17华股01</t>
+  </si>
+  <si>
+    <t>19贵阳银行绿色01</t>
+  </si>
+  <si>
+    <t>19兴业G1</t>
+  </si>
+  <si>
+    <t>19交通银行01</t>
+  </si>
+  <si>
+    <t>19交通银行02</t>
+  </si>
+  <si>
+    <t>20长沙银行小微债01</t>
+  </si>
+  <si>
+    <t>20江北新区PPN001</t>
+  </si>
+  <si>
+    <t>20华股01</t>
+  </si>
+  <si>
+    <t>20中金G3</t>
+  </si>
+  <si>
+    <t>20光证G1</t>
+  </si>
+  <si>
+    <t>20中证15</t>
   </si>
   <si>
     <t>20华夏银行小微债01</t>
   </si>
   <si>
-    <t>20重庆银行小微债01</t>
+    <t>20兴业银行小微债05</t>
+  </si>
+  <si>
+    <t>20济南高新PPN001</t>
   </si>
   <si>
     <t>20交通银行02</t>
   </si>
   <si>
-    <t>16光控04</t>
-  </si>
-  <si>
-    <t>20常城建PPN003</t>
-  </si>
-  <si>
     <t>20华夏银行</t>
   </si>
   <si>
+    <t>20光证G7</t>
+  </si>
+  <si>
+    <t>14建行二级01</t>
+  </si>
+  <si>
+    <t>19上海银行二级</t>
+  </si>
+  <si>
+    <t>20济轨01</t>
+  </si>
+  <si>
+    <t>20民生银行二级</t>
+  </si>
+  <si>
     <t>20中国银行二级01</t>
   </si>
   <si>
     <t>20工商银行二级01</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>3.89</t>
-  </si>
-  <si>
-    <t>4.90</t>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>3.265</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>3.21</t>
   </si>
   <si>
     <t>3.20</t>
   </si>
   <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>4.78</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>3.24</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>4.85</t>
-  </si>
-  <si>
-    <t>3.28</t>
-  </si>
-  <si>
-    <t>3.78</t>
-  </si>
-  <si>
-    <t>4.04</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
-    <t>3.50</t>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>4.22</t>
   </si>
   <si>
     <t>3.39</t>
   </si>
   <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>3.41</t>
-  </si>
-  <si>
-    <t>3.405</t>
-  </si>
-  <si>
     <t>3.52</t>
   </si>
   <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>3.395</t>
-  </si>
-  <si>
-    <t>4.21</t>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
+    <t>4.18</t>
   </si>
   <si>
     <t>AAA</t>
@@ -674,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,16 +633,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F2">
-        <v>0.8</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -725,16 +653,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>0.9397260273972603</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -742,19 +670,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F4">
-        <v>0.9397260273972603</v>
+        <v>1.24986301369863</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -762,19 +690,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>0.9753424657534246</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -782,19 +710,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F6">
-        <v>0.9753424657534246</v>
+        <v>1.83013698630137</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -802,19 +730,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F7">
-        <v>1.18986301369863</v>
+        <v>1.83013698630137</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -822,19 +750,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>1.24</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -842,19 +770,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F9">
-        <v>1.24</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -862,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F10">
-        <v>1.24</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -882,19 +810,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F11">
-        <v>1.24</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -905,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>1.36</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -925,16 +853,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F13">
-        <v>1.36</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -942,19 +870,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F14">
-        <v>1.46</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -962,19 +890,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F15">
-        <v>1.53013698630137</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -982,19 +910,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F16">
-        <v>1.53013698630137</v>
+        <v>1.92986301369863</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1002,19 +930,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F17">
-        <v>1.64986301369863</v>
+        <v>1.92986301369863</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1022,19 +950,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F18">
-        <v>1.7</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1042,19 +970,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F19">
-        <v>1.7</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1062,19 +990,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F20">
-        <v>1.80986301369863</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1082,19 +1010,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F21">
-        <v>1.80986301369863</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1102,19 +1030,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F22">
-        <v>1.84</v>
+        <v>2.33013698630137</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1122,19 +1050,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F23">
-        <v>1.88</v>
+        <v>2.33013698630137</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1142,19 +1070,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F24">
-        <v>1.88</v>
+        <v>2.33013698630137</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1162,19 +1090,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F25">
-        <v>1.98</v>
+        <v>2.33013698630137</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1182,19 +1110,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F26">
-        <v>2.00986301369863</v>
+        <v>2.33013698630137</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1202,19 +1130,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F27">
-        <v>2.02</v>
+        <v>2.33013698630137</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1222,19 +1150,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F28">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1242,19 +1170,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F29">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1262,19 +1190,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F30">
-        <v>2.2</v>
+        <v>2.58986301369863</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1282,19 +1210,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F31">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1302,19 +1230,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F32">
-        <v>2.30986301369863</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1322,19 +1250,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F33">
-        <v>2.30986301369863</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1342,19 +1270,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
         <v>58</v>
       </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F34">
-        <v>2.39013698630137</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1362,19 +1290,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F35">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1382,19 +1310,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F36">
-        <v>2.58986301369863</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1402,19 +1330,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F37">
-        <v>2.58986301369863</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1422,19 +1350,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F38">
-        <v>2.83013698630137</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1442,19 +1370,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F39">
-        <v>2.83013698630137</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1462,19 +1390,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F40">
-        <v>2.84986301369863</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1482,16 +1410,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F41">
         <v>2.84986301369863</v>
@@ -1502,16 +1430,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F42">
         <v>2.84986301369863</v>
@@ -1522,19 +1450,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F43">
-        <v>2.88</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1542,19 +1470,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F44">
-        <v>2.91013698630137</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1562,19 +1490,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F45">
-        <v>2.95013698630137</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1582,19 +1510,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F46">
-        <v>2.95013698630137</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1602,19 +1530,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F47">
-        <v>2.95013698630137</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1622,19 +1550,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F48">
-        <v>2.95013698630137</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1642,19 +1570,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F49">
-        <v>2.95013698630137</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1662,16 +1590,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
         <v>65</v>
       </c>
-      <c r="D50" t="s">
-        <v>92</v>
-      </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F50">
         <v>2.95013698630137</v>
@@ -1682,19 +1610,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F51">
-        <v>4.71013698630137</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1702,19 +1630,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F52">
-        <v>4.72</v>
+        <v>2.97013698630137</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1722,19 +1650,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F53">
-        <v>4.72</v>
+        <v>2.97013698630137</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1742,18 +1670,278 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
         <v>67</v>
       </c>
-      <c r="D54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54">
+      <c r="E55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55">
+        <v>3.84986301369863</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56">
+        <v>3.84986301369863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57">
+        <v>3.84986301369863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58">
+        <v>3.84986301369863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61">
+        <v>4.71013698630137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62">
+        <v>4.71013698630137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63">
+        <v>4.71013698630137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67">
         <v>4.72</v>
       </c>
     </row>

--- a/data/BondDeal/其他.xlsx
+++ b/data/BondDeal/其他.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,211 +31,283 @@
     <t>year</t>
   </si>
   <si>
-    <t>346D</t>
-  </si>
-  <si>
-    <t>1.16Y</t>
-  </si>
-  <si>
-    <t>1.25Y</t>
-  </si>
-  <si>
-    <t>1.68Y</t>
-  </si>
-  <si>
-    <t>1.83Y</t>
-  </si>
-  <si>
-    <t>1.89Y</t>
-  </si>
-  <si>
-    <t>1.93Y</t>
-  </si>
-  <si>
-    <t>2.14Y</t>
-  </si>
-  <si>
-    <t>2.14Y+2Y</t>
-  </si>
-  <si>
-    <t>2.33Y+3Y</t>
-  </si>
-  <si>
-    <t>2.46Y</t>
-  </si>
-  <si>
-    <t>2.56Y</t>
+    <t>292D(休1)</t>
+  </si>
+  <si>
+    <t>343D</t>
+  </si>
+  <si>
+    <t>356D</t>
+  </si>
+  <si>
+    <t>1.19Y</t>
+  </si>
+  <si>
+    <t>1.24Y</t>
+  </si>
+  <si>
+    <t>1.36Y</t>
+  </si>
+  <si>
+    <t>1.46Y</t>
+  </si>
+  <si>
+    <t>1.53Y</t>
+  </si>
+  <si>
+    <t>1.65Y</t>
+  </si>
+  <si>
+    <t>1.70Y+2Y</t>
+  </si>
+  <si>
+    <t>1.81Y</t>
+  </si>
+  <si>
+    <t>1.81Y+1Y</t>
+  </si>
+  <si>
+    <t>1.84Y</t>
+  </si>
+  <si>
+    <t>1.88Y+3Y</t>
+  </si>
+  <si>
+    <t>1.88Y</t>
+  </si>
+  <si>
+    <t>1.98Y</t>
+  </si>
+  <si>
+    <t>2.01Y+2Y</t>
+  </si>
+  <si>
+    <t>2.02Y</t>
+  </si>
+  <si>
+    <t>2.20Y</t>
+  </si>
+  <si>
+    <t>2.26Y</t>
+  </si>
+  <si>
+    <t>2.31Y</t>
+  </si>
+  <si>
+    <t>2.39Y</t>
+  </si>
+  <si>
+    <t>2.52Y</t>
   </si>
   <si>
     <t>2.59Y</t>
   </si>
   <si>
-    <t>2.60Y</t>
-  </si>
-  <si>
-    <t>2.7Y</t>
+    <t>2.83Y</t>
   </si>
   <si>
     <t>2.85Y</t>
   </si>
   <si>
+    <t>2.88Y</t>
+  </si>
+  <si>
+    <t>2.91Y</t>
+  </si>
+  <si>
     <t>2.95Y</t>
   </si>
   <si>
-    <t>2.97Y</t>
-  </si>
-  <si>
-    <t>3.62Y+5Y</t>
-  </si>
-  <si>
-    <t>3.85Y+5Y</t>
-  </si>
-  <si>
-    <t>4.20Y</t>
-  </si>
-  <si>
-    <t>4.48Y+5Y</t>
-  </si>
-  <si>
     <t>4.71Y+5Y</t>
   </si>
   <si>
     <t>4.72Y+5Y</t>
   </si>
   <si>
-    <t>18平安银行01</t>
-  </si>
-  <si>
-    <t>19华融湘江银行01</t>
-  </si>
-  <si>
-    <t>17华股01</t>
-  </si>
-  <si>
-    <t>19贵阳银行绿色01</t>
-  </si>
-  <si>
-    <t>19兴业G1</t>
-  </si>
-  <si>
-    <t>19交通银行01</t>
-  </si>
-  <si>
-    <t>19交通银行02</t>
-  </si>
-  <si>
-    <t>20长沙银行小微债01</t>
-  </si>
-  <si>
-    <t>20江北新区PPN001</t>
-  </si>
-  <si>
-    <t>20华股01</t>
-  </si>
-  <si>
-    <t>20中金G3</t>
-  </si>
-  <si>
-    <t>20光证G1</t>
-  </si>
-  <si>
-    <t>20中证15</t>
+    <t>16云能投PPN001</t>
+  </si>
+  <si>
+    <t>18民生银行02</t>
+  </si>
+  <si>
+    <t>20光证G6</t>
+  </si>
+  <si>
+    <t>18大连银行绿色金融</t>
+  </si>
+  <si>
+    <t>19河钢集PPN001</t>
+  </si>
+  <si>
+    <t>19建银01</t>
+  </si>
+  <si>
+    <t>19中银01</t>
+  </si>
+  <si>
+    <t>17南通经开GN002</t>
+  </si>
+  <si>
+    <t>19西南02</t>
+  </si>
+  <si>
+    <t>19河南资产PPN001</t>
+  </si>
+  <si>
+    <t>19建发地产PPN002</t>
+  </si>
+  <si>
+    <t>20招证G6</t>
+  </si>
+  <si>
+    <t>20中金13</t>
+  </si>
+  <si>
+    <t>19河南资产PPN002</t>
+  </si>
+  <si>
+    <t>19中金04</t>
+  </si>
+  <si>
+    <t>20国君G6</t>
+  </si>
+  <si>
+    <t>19天津银行债</t>
+  </si>
+  <si>
+    <t>20远东一</t>
+  </si>
+  <si>
+    <t>20重庆农商三农债</t>
+  </si>
+  <si>
+    <t>20中国信达02BC(一)</t>
+  </si>
+  <si>
+    <t>20浙商银行小微债02</t>
+  </si>
+  <si>
+    <t>20浦发银行01</t>
+  </si>
+  <si>
+    <t>20平安银行小微债01</t>
+  </si>
+  <si>
+    <t>20中证13</t>
   </si>
   <si>
     <t>20华夏银行小微债01</t>
   </si>
   <si>
-    <t>20兴业银行小微债05</t>
-  </si>
-  <si>
-    <t>20济南高新PPN001</t>
+    <t>20重庆银行小微债01</t>
   </si>
   <si>
     <t>20交通银行02</t>
   </si>
   <si>
+    <t>16光控04</t>
+  </si>
+  <si>
+    <t>20常城建PPN003</t>
+  </si>
+  <si>
     <t>20华夏银行</t>
   </si>
   <si>
-    <t>20光证G7</t>
-  </si>
-  <si>
-    <t>14建行二级01</t>
-  </si>
-  <si>
-    <t>19上海银行二级</t>
-  </si>
-  <si>
-    <t>20济轨01</t>
-  </si>
-  <si>
-    <t>20民生银行二级</t>
-  </si>
-  <si>
     <t>20中国银行二级01</t>
   </si>
   <si>
     <t>20工商银行二级01</t>
   </si>
   <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>3.265</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>3.36</t>
   </si>
   <si>
     <t>3.32</t>
   </si>
   <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>3.38</t>
-  </si>
-  <si>
     <t>3.37</t>
   </si>
   <si>
-    <t>4.22</t>
-  </si>
-  <si>
-    <t>3.39</t>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>3.405</t>
   </si>
   <si>
     <t>3.52</t>
   </si>
   <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>4.26</t>
-  </si>
-  <si>
-    <t>4.18</t>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>3.395</t>
+  </si>
+  <si>
+    <t>4.21</t>
   </si>
   <si>
     <t>AAA</t>
@@ -602,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,16 +705,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F2">
-        <v>0.947945205479452</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -653,16 +725,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F3">
-        <v>1.16</v>
+        <v>0.9397260273972603</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -670,19 +742,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F4">
-        <v>1.24986301369863</v>
+        <v>0.9397260273972603</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -690,19 +762,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F5">
-        <v>1.68</v>
+        <v>0.9753424657534246</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -710,19 +782,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F6">
-        <v>1.83013698630137</v>
+        <v>0.9753424657534246</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -730,19 +802,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F7">
-        <v>1.83013698630137</v>
+        <v>1.18986301369863</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -750,19 +822,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F8">
-        <v>1.88986301369863</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -770,19 +842,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F9">
-        <v>1.88986301369863</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -790,19 +862,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F10">
-        <v>1.88986301369863</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -810,19 +882,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F11">
-        <v>1.88986301369863</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -833,16 +905,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F12">
-        <v>1.88986301369863</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -853,16 +925,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F13">
-        <v>1.88986301369863</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -870,19 +942,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F14">
-        <v>1.88986301369863</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -890,19 +962,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F15">
-        <v>1.88986301369863</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -910,19 +982,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F16">
-        <v>1.92986301369863</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,19 +1002,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F17">
-        <v>1.92986301369863</v>
+        <v>1.64986301369863</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,19 +1022,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F18">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,19 +1042,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F19">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,19 +1062,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F20">
-        <v>2.14</v>
+        <v>1.80986301369863</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,19 +1082,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>2.14</v>
+        <v>1.80986301369863</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,19 +1102,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F22">
-        <v>2.33013698630137</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,19 +1122,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F23">
-        <v>2.33013698630137</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,19 +1142,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F24">
-        <v>2.33013698630137</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,19 +1162,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F25">
-        <v>2.33013698630137</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,19 +1182,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F26">
-        <v>2.33013698630137</v>
+        <v>2.00986301369863</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,19 +1202,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F27">
-        <v>2.33013698630137</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,19 +1222,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F28">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,19 +1242,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F29">
-        <v>2.56</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,19 +1262,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F30">
-        <v>2.58986301369863</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,19 +1282,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F31">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1230,19 +1302,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F32">
-        <v>2.6</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1250,19 +1322,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F33">
-        <v>2.6</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1270,19 +1342,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F34">
-        <v>2.6</v>
+        <v>2.39013698630137</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1290,19 +1362,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F35">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1310,19 +1382,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F36">
-        <v>2.6</v>
+        <v>2.58986301369863</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1330,19 +1402,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F37">
-        <v>2.6</v>
+        <v>2.58986301369863</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1350,19 +1422,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F38">
-        <v>2.6</v>
+        <v>2.83013698630137</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1370,19 +1442,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F39">
-        <v>2.6</v>
+        <v>2.83013698630137</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1390,19 +1462,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F40">
-        <v>2.7</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1410,16 +1482,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F41">
         <v>2.84986301369863</v>
@@ -1430,16 +1502,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F42">
         <v>2.84986301369863</v>
@@ -1450,19 +1522,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F43">
-        <v>2.84986301369863</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1470,19 +1542,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F44">
-        <v>2.84986301369863</v>
+        <v>2.91013698630137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1490,19 +1562,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F45">
-        <v>2.84986301369863</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1510,19 +1582,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F46">
-        <v>2.84986301369863</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1530,19 +1602,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F47">
-        <v>2.84986301369863</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1550,19 +1622,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F48">
-        <v>2.84986301369863</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1570,19 +1642,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F49">
-        <v>2.84986301369863</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1590,16 +1662,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F50">
         <v>2.95013698630137</v>
@@ -1610,19 +1682,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F51">
-        <v>2.95013698630137</v>
+        <v>4.71013698630137</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1630,19 +1702,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F52">
-        <v>2.97013698630137</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1650,19 +1722,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F53">
-        <v>2.97013698630137</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1670,278 +1742,18 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F54">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55">
-        <v>3.84986301369863</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56">
-        <v>3.84986301369863</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57">
-        <v>3.84986301369863</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58">
-        <v>3.84986301369863</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60">
-        <v>4.48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" t="s">
-        <v>74</v>
-      </c>
-      <c r="F61">
-        <v>4.71013698630137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62">
-        <v>4.71013698630137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63">
-        <v>4.71013698630137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" t="s">
-        <v>53</v>
-      </c>
-      <c r="D65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66" t="s">
-        <v>73</v>
-      </c>
-      <c r="E66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" t="s">
-        <v>53</v>
-      </c>
-      <c r="D67" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" t="s">
-        <v>74</v>
-      </c>
-      <c r="F67">
         <v>4.72</v>
       </c>
     </row>
